--- a/Arrivals2013.xlsx
+++ b/Arrivals2013.xlsx
@@ -1,155 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="123820"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayat Amin\Desktop\SDRefugees\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="page 1" sheetId="1" r:id="rId3"/>
+    <sheet name="page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43" count="175">
-  <si>
-    <t xml:space="preserve">COUNTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alameda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contra Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Bernardino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Joaquin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Obispo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Mateo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Clara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanislaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,382</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="40">
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>Oct-12</t>
+  </si>
+  <si>
+    <t>Nov-12</t>
+  </si>
+  <si>
+    <t>Dec-12</t>
+  </si>
+  <si>
+    <t>Jan-13</t>
+  </si>
+  <si>
+    <t>Feb-13</t>
+  </si>
+  <si>
+    <t>Mar-13</t>
+  </si>
+  <si>
+    <t>Apr-13</t>
+  </si>
+  <si>
+    <t>May-13</t>
+  </si>
+  <si>
+    <t>Jun-13</t>
+  </si>
+  <si>
+    <t>Jul-13</t>
+  </si>
+  <si>
+    <t>Aug-13</t>
+  </si>
+  <si>
+    <t>Sep-13</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Monterey</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>San Bernardino</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>San Joaquin</t>
+  </si>
+  <si>
+    <t>San Luis Obispo</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Solano</t>
+  </si>
+  <si>
+    <t>Sonoma</t>
+  </si>
+  <si>
+    <t>Stanislaus</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>Yolo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,36 +154,32 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
+    </font>
+    <font>
       <i/>
-      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
-      <i/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,40 +222,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,6 +266,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,9 +352,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,6 +387,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,20 +422,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="65000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="85000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -438,7 +443,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -453,7 +458,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -463,16 +468,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="64000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -481,22 +486,22 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
             <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="matte">
+            <a:bevelT h="22225"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -508,27 +513,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="50000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="75000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -558,75 +560,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.190476" customWidth="1"/>
-    <col min="2" max="2" width="7.428571" customWidth="1"/>
-    <col min="3" max="3" width="8.190476" customWidth="1"/>
-    <col min="4" max="4" width="8.000000" customWidth="1"/>
-    <col min="5" max="5" width="8.000000" customWidth="1"/>
-    <col min="6" max="6" width="8.000000" customWidth="1"/>
-    <col min="7" max="7" width="8.190476" customWidth="1"/>
-    <col min="8" max="8" width="7.619048" customWidth="1"/>
-    <col min="9" max="9" width="8.571429" customWidth="1"/>
-    <col min="10" max="10" width="8.000000" customWidth="1"/>
-    <col min="11" max="11" width="7.238095" customWidth="1"/>
-    <col min="12" max="12" width="8.190476" customWidth="1"/>
-    <col min="13" max="13" width="8.190476" customWidth="1"/>
-    <col min="14" max="14" width="8.190476" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="4" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" customWidth="1"/>
+    <col min="12" max="14" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.16" customHeight="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="12.66" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
@@ -665,59 +665,59 @@
       <c r="M2" s="3">
         <v>44</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="8">
         <v>270</v>
       </c>
     </row>
-    <row r="3" ht="12.6" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="D3" s="7">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6">
         <v>7</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>9</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>5</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>8</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>4</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>7</v>
       </c>
       <c r="N3" s="9">
         <v>69</v>
       </c>
     </row>
-    <row r="4" ht="12.6" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4">
@@ -726,107 +726,107 @@
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="4">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s" s="4">
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="12.6" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>3</v>
       </c>
-      <c r="I5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s" s="7">
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="12.6" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="4">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s" s="4">
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="4">
@@ -835,151 +835,151 @@
       <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="L6" t="s" s="4">
+      <c r="L6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="3">
         <v>11</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="12.6" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>75</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>151</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>123</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>132</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>103</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>88</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>95</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>75</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>184</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>67</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>131</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>163</v>
       </c>
-      <c r="N7" t="s" s="9">
+      <c r="N7" s="9">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="12.6" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="N8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="12.63" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s" s="7">
+      <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N9" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="12.6" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>24</v>
+    <row r="10" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="3">
         <v>14</v>
@@ -1017,57 +1017,57 @@
       <c r="M10" s="3">
         <v>29</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="8">
         <v>387</v>
       </c>
     </row>
-    <row r="11" ht="12.6" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="C11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>3</v>
       </c>
-      <c r="I11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s" s="7">
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N11" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="12" ht="12.6" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>26</v>
+    <row r="12" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
@@ -1075,10 +1075,10 @@
       <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s" s="4">
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="3">
@@ -1087,7 +1087,7 @@
       <c r="G12" s="3">
         <v>13</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="4">
@@ -1105,57 +1105,57 @@
       <c r="M12" s="4">
         <v>4</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="13" ht="12.6" customHeight="1">
-      <c r="A13" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="B13" s="8">
+    <row r="13" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7">
         <v>60</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>66</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>66</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>14</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>39</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>61</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>70</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>72</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>79</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>88</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>62</v>
       </c>
       <c r="N13" s="9">
         <v>741</v>
       </c>
     </row>
-    <row r="14" ht="12.6" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>28</v>
+    <row r="14" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B14" s="4">
         <v>8</v>
@@ -1163,7 +1163,7 @@
       <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="4">
@@ -1184,66 +1184,66 @@
       <c r="J14" s="4">
         <v>6</v>
       </c>
-      <c r="K14" t="s" s="4">
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="4">
         <v>3</v>
       </c>
-      <c r="M14" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="M14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="15" ht="12.6" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7">
+        <v>332</v>
+      </c>
+      <c r="C15" s="7">
+        <v>312</v>
+      </c>
+      <c r="D15" s="7">
+        <v>208</v>
+      </c>
+      <c r="E15" s="7">
+        <v>117</v>
+      </c>
+      <c r="F15" s="7">
+        <v>203</v>
+      </c>
+      <c r="G15" s="7">
+        <v>252</v>
+      </c>
+      <c r="H15" s="7">
+        <v>167</v>
+      </c>
+      <c r="I15" s="7">
+        <v>187</v>
+      </c>
+      <c r="J15" s="7">
+        <v>191</v>
+      </c>
+      <c r="K15" s="7">
+        <v>280</v>
+      </c>
+      <c r="L15" s="7">
+        <v>180</v>
+      </c>
+      <c r="M15" s="7">
+        <v>316</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="8">
-        <v>332</v>
-      </c>
-      <c r="C15" s="8">
-        <v>312</v>
-      </c>
-      <c r="D15" s="8">
-        <v>208</v>
-      </c>
-      <c r="E15" s="8">
-        <v>117</v>
-      </c>
-      <c r="F15" s="8">
-        <v>203</v>
-      </c>
-      <c r="G15" s="8">
-        <v>252</v>
-      </c>
-      <c r="H15" s="8">
-        <v>167</v>
-      </c>
-      <c r="I15" s="8">
-        <v>187</v>
-      </c>
-      <c r="J15" s="8">
-        <v>191</v>
-      </c>
-      <c r="K15" s="8">
-        <v>280</v>
-      </c>
-      <c r="L15" s="8">
-        <v>180</v>
-      </c>
-      <c r="M15" s="8">
-        <v>316</v>
-      </c>
-      <c r="N15" t="s" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="12.6" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>31</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -1269,7 +1269,7 @@
       <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="J16" t="s" s="4">
+      <c r="J16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="4">
@@ -1281,145 +1281,145 @@
       <c r="M16" s="4">
         <v>2</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="12.6" customHeight="1">
-      <c r="A17" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
+    <row r="17" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
         <v>6</v>
       </c>
-      <c r="I17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="7">
         <v>12</v>
       </c>
       <c r="N17" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="12.62" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s" s="4">
+    <row r="18" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s" s="4">
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="L18" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="M18" t="s" s="4">
+      <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="12.6" customHeight="1">
-      <c r="A19" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B19" s="7">
+    <row r="19" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>7</v>
       </c>
-      <c r="D19" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="D19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6">
         <v>8</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>7</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>1</v>
       </c>
       <c r="N19" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="12.6" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>35</v>
+    <row r="20" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>32</v>
@@ -1457,89 +1457,89 @@
       <c r="M20" s="3">
         <v>13</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="8">
         <v>315</v>
       </c>
     </row>
-    <row r="21" ht="12.6" customHeight="1">
-      <c r="A21" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
+    <row r="21" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6">
         <v>3</v>
       </c>
-      <c r="I21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="L21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="M21" t="s" s="7">
+      <c r="I21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="12.6" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s" s="4">
+    <row r="22" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="L22" t="s" s="4">
+      <c r="K22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="4">
@@ -1549,53 +1549,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="12.6" customHeight="1">
-      <c r="A23" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7">
+    <row r="23" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6">
         <v>2</v>
       </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="K23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="L23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="M23" t="s" s="7">
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="24" ht="12.6" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>39</v>
+    <row r="24" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B24" s="3">
         <v>21</v>
@@ -1633,86 +1633,86 @@
       <c r="M24" s="3">
         <v>18</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="8">
         <v>209</v>
       </c>
     </row>
-    <row r="25" ht="12.6" customHeight="1">
-      <c r="A25" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="B25" s="7">
+    <row r="25" spans="1:14" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6">
         <v>3</v>
       </c>
-      <c r="C25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="C25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="6">
         <v>2</v>
       </c>
-      <c r="F25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="F25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="L25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="M25" t="s" s="7">
+      <c r="K25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N25" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="26" ht="12.57" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s" s="4">
+    <row r="26" spans="1:14" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="4">
         <v>3</v>
       </c>
-      <c r="K26" t="s" s="4">
+      <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="4">
@@ -1725,8 +1725,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="13.26" customHeight="1">
-      <c r="A27" t="s" s="1">
+    <row r="27" spans="1:14" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1">
@@ -1765,8 +1765,8 @@
       <c r="M27" s="1">
         <v>684</v>
       </c>
-      <c r="N27" t="s" s="1">
-        <v>42</v>
+      <c r="N27" s="12">
+        <v>6382</v>
       </c>
     </row>
   </sheetData>
